--- a/test_case_data/bmc/bmc_road_review_2021513.xlsx
+++ b/test_case_data/bmc/bmc_road_review_2021513.xlsx
@@ -151,7 +151,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>{"isHasNotFinish": 0,"peoplePhone": "18800000020","companyName": "666","organizeCode": "168685858588855850","peopleName": "小文子","id": null}</t>
+    <t>{"isHasNotFinish": 0,"peoplePhone": "18800000044","companyName": "666","organizeCode": "168685858588855850","peopleName": "接口自动化","id": null}</t>
   </si>
   <si>
     <t>基本信息提交成功</t>
@@ -169,7 +169,7 @@
     <t>/pvtapi/occupy/road/addOccupyRoadInfo</t>
   </si>
   <si>
-    <t>{ "operateType":1,"operateReason":2,"occupyType":2,"beginDate":"2021-05-10","endDate":"2021-07-10","roadRemark":"这是备注内容","width":"2","length": "10","vehicle":[{ "plateType":"蓝牌","plateNum":"京A 54344"}],"time": [{"beginTime": "06:00","endTime": "18:00"}],"roadName": "四川省成都市双流区湖畔路北段","roadLng": 104.090169,"roadLat": 30.402453,"id": "404"}</t>
+    <t>{ "operateType":1,"operateReason":2,"occupyType":2,"beginDate":"2021-05-10","endDate":"2021-07-10","roadRemark":"这是接口自动化数据","width":"2","length": "10","vehicle":[{ "plateType":"蓝牌","plateNum":"京A 54344"}],"time": [{"beginTime": "06:00","endTime": "18:00"}],"roadName": "四川省成都市双流区湖畔路北段","roadLng": 104.090169,"roadLat": 30.402453,"id": "404"}</t>
   </si>
   <si>
     <t>占道信息提交成功</t>
@@ -178,7 +178,7 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/75856</t>
   </si>
   <si>
-    <t>roadaddFile001</t>
+    <t>roadaddpFile001</t>
   </si>
   <si>
     <t>提交上传资料</t>
@@ -261,7 +261,7 @@
     <t>添加占道信息-作业方式是紧急抢修</t>
   </si>
   <si>
-    <t>{"operateType": 2,"operateReason": 3, "occupyType": 1,"beginDate": "2021-05-11","endDate": "2021-09-11","roadRemark": "","width": "5","length": "50","vehicle": [{"plateType": "黄牌",
+    <t>{"operateType": 2,"operateReason": 3, "occupyType": 1,"beginDate": "2021-05-11","endDate": "2021-09-11","roadRemark": "这是接口自动化数据","width": "5","length": "50","vehicle": [{"plateType": "黄牌",
   "plateNum": "川A 656UY"}],"time": [{"beginTime": "07:00", "endTime": "19:00"
  }], "roadName": "四川省成都市双流区雅州路", "roadLng": 104.067348, "roadLat": 30.456608, "id": "407"}</t>
   </si>
@@ -307,9 +307,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -347,21 +347,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,10 +406,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,6 +437,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -398,97 +476,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -511,187 +511,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,8 +707,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -725,32 +727,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,7 +750,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,6 +770,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -802,6 +793,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -810,10 +810,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,137 +822,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,22 +962,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -987,15 +978,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1348,8 +1330,8 @@
   <sheetPr/>
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1373,58 +1355,58 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:18">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1444,24 +1426,24 @@
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="11"/>
+      <c r="O2" s="8"/>
       <c r="P2" s="2" t="s">
         <v>28</v>
       </c>
@@ -1485,24 +1467,24 @@
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="9" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P3" s="2" t="s">
@@ -1528,24 +1510,24 @@
       <c r="E4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="8" t="s">
         <v>40</v>
       </c>
       <c r="P4" s="2" t="s">
@@ -1571,26 +1553,26 @@
       <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="P5" s="2" t="s">
@@ -1616,10 +1598,10 @@
       <c r="E6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1628,16 +1610,16 @@
       <c r="I6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="8" t="s">
         <v>53</v>
       </c>
       <c r="P6" s="2" t="s">
@@ -1647,176 +1629,176 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:18">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="2" customFormat="1" ht="27.95" customHeight="1" spans="1:18">
+      <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:18">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="2" customFormat="1" ht="27.95" customHeight="1" spans="1:18">
+      <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="12" t="s">
+      <c r="L8" s="6"/>
+      <c r="M8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:18">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="2" customFormat="1" ht="27.95" customHeight="1" spans="1:18">
+      <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="12" t="s">
+      <c r="L9" s="6"/>
+      <c r="M9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:18">
-      <c r="A10" s="3" t="s">
+    <row r="10" s="2" customFormat="1" ht="27.95" customHeight="1" spans="1:18">
+      <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="12" t="s">
+      <c r="L10" s="6"/>
+      <c r="M10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1836,10 +1818,10 @@
       <c r="E11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -1848,16 +1830,16 @@
       <c r="I11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="8" t="s">
         <v>53</v>
       </c>
       <c r="P11" s="2" t="s">
@@ -1867,129 +1849,129 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:18">
-      <c r="A12" s="3" t="s">
+    <row r="12" s="2" customFormat="1" ht="27.95" customHeight="1" spans="1:18">
+      <c r="A12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="12" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:18">
-      <c r="A13" s="3" t="s">
+    <row r="13" s="2" customFormat="1" ht="27.95" customHeight="1" spans="1:18">
+      <c r="A13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="12" t="s">
+      <c r="L13" s="6"/>
+      <c r="M13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:18">
-      <c r="A14" s="3" t="s">
+    <row r="14" s="2" customFormat="1" ht="27.95" customHeight="1" spans="1:18">
+      <c r="A14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="12" t="s">
+      <c r="L14" s="6"/>
+      <c r="M14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/test_case_data/bmc/bmc_road_review_2021513.xlsx
+++ b/test_case_data/bmc/bmc_road_review_2021513.xlsx
@@ -201,7 +201,7 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/75861</t>
   </si>
   <si>
-    <t>roaddetailt001</t>
+    <t>roaddetail001</t>
   </si>
   <si>
     <t>申请详情</t>
@@ -307,10 +307,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -347,14 +347,129 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,126 +484,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -511,187 +511,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,13 +705,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,26 +735,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,17 +765,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,15 +802,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -810,10 +810,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,133 +822,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1331,7 +1331,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
